--- a/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7958976978989503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5949658947591466</v>
+        <v>0.5949658947591465</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7733815146918805</v>
@@ -685,7 +685,7 @@
         <v>0.8492814136457337</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6277646261484462</v>
+        <v>0.6277646261484463</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.7724502315094974</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7322726048541689</v>
+        <v>0.7395302996112229</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6077125832406277</v>
+        <v>0.6055116297427822</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.762488047201932</v>
+        <v>0.7647136028482759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5534273923540824</v>
+        <v>0.5553776761073571</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7419248850155176</v>
+        <v>0.7409601921301751</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6868069071584753</v>
+        <v>0.6882350131232265</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8219634178526767</v>
+        <v>0.8240162061408162</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5958212874628249</v>
+        <v>0.5963493545324804</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7478578634873089</v>
+        <v>0.7478229194823641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6569068589484677</v>
+        <v>0.6569517972501218</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8002707663174237</v>
+        <v>0.7998157333372915</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5857255877414433</v>
+        <v>0.5837716797135207</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.799692304780065</v>
+        <v>0.8014812953744808</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6802817213823619</v>
+        <v>0.6827670280658295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.828985346409618</v>
+        <v>0.8256021936241774</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6387450745394532</v>
+        <v>0.6432013800247968</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8038347984655959</v>
+        <v>0.8008704776655348</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7564034891571982</v>
+        <v>0.7568506189240384</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8736753612474502</v>
+        <v>0.8768367511755196</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6593573185600852</v>
+        <v>0.6569611921909916</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7929907584415149</v>
+        <v>0.7958720901340803</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7086605414619661</v>
+        <v>0.7087000921759845</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8415089684965348</v>
+        <v>0.8430725364623577</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6383068055630414</v>
+        <v>0.6377611358684587</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.8645591159422932</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6890515077016622</v>
+        <v>0.6890515077016625</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.7206562950936406</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6680567284282877</v>
+        <v>0.6689247819208894</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6575346781375123</v>
+        <v>0.6562403103184292</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7887883021721148</v>
+        <v>0.7889790838836126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.624118270617964</v>
+        <v>0.6238482815841975</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7130508206015455</v>
+        <v>0.7098995283805293</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7179291964286335</v>
+        <v>0.7182138623241394</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8419831155615275</v>
+        <v>0.8427011907627343</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6620209506473934</v>
+        <v>0.659460677794248</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7002962437978517</v>
+        <v>0.6989821675647591</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6958633691440801</v>
+        <v>0.6970320996882332</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8223609084061767</v>
+        <v>0.8229335750622687</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.651803648130678</v>
+        <v>0.6513773924877342</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7312990309918053</v>
+        <v>0.7324948935243913</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7160754414294795</v>
+        <v>0.7151631802057042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8409583159445307</v>
+        <v>0.8393407087617853</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6933099726191622</v>
+        <v>0.689133465353494</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.767312607862678</v>
+        <v>0.7665808082913008</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7741994991268345</v>
+        <v>0.7743324385749549</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8859101040792059</v>
+        <v>0.8844830675272836</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7165995652081463</v>
+        <v>0.7134308343544989</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7409384161770988</v>
+        <v>0.7401761878965593</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7379294304790889</v>
+        <v>0.7380527393897151</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8553116494880072</v>
+        <v>0.8555958986796325</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6952414115668987</v>
+        <v>0.6943156117586369</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.8603704271025273</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6670986341731201</v>
+        <v>0.6670986341731199</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6083885660537487</v>
+        <v>0.6096387236331033</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6228752268430388</v>
+        <v>0.6241237258035848</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8339891567028828</v>
+        <v>0.8338290307895166</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6327280144380675</v>
+        <v>0.6367504622537116</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6396321519416783</v>
+        <v>0.6398669183844206</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6695842231684265</v>
+        <v>0.6655577753879088</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8336372583838881</v>
+        <v>0.8320244099797512</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6246723553659506</v>
+        <v>0.6276581478460552</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6373609802742799</v>
+        <v>0.6367899107810219</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6563020279681909</v>
+        <v>0.6556378766874391</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8407309145400841</v>
+        <v>0.8406510469875074</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6424171663231411</v>
+        <v>0.64265927959388</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6833589622499608</v>
+        <v>0.6846216657444734</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6956427172981338</v>
+        <v>0.6946940256179004</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8862041357084561</v>
+        <v>0.8852120264406229</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.712298271189082</v>
+        <v>0.7152597131654571</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7153018223356142</v>
+        <v>0.7089599326318859</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7365506569077442</v>
+        <v>0.7335602434447269</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8845603377680527</v>
+        <v>0.8839029441486205</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6900743835049048</v>
+        <v>0.6902652704750141</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6887510142780077</v>
+        <v>0.685659026496085</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7065849650537976</v>
+        <v>0.7067284412664605</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8768102778399688</v>
+        <v>0.8777893318460275</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6924794654205741</v>
+        <v>0.6935718055338898</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.8220265100116526</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6313971325365172</v>
+        <v>0.6313971325365173</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7019684687163874</v>
@@ -1105,7 +1105,7 @@
         <v>0.8146600163883856</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6326665374300612</v>
+        <v>0.6326665374300613</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6634402382529383</v>
+        <v>0.6700577938449886</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7137976845313047</v>
+        <v>0.7136110494691807</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7831108982311462</v>
+        <v>0.7815001186258661</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5952991725404053</v>
+        <v>0.6022022068850984</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6759054847876211</v>
+        <v>0.6777661470523592</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7943099993134346</v>
+        <v>0.7926030626323701</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7958007686619832</v>
+        <v>0.7963374133383896</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6052844975289871</v>
+        <v>0.6043987279725251</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.680440109260194</v>
+        <v>0.6817001269838037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7627818077786657</v>
+        <v>0.7639528407094508</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7969850296462172</v>
+        <v>0.7968613988663815</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6078650709257573</v>
+        <v>0.6111853473157124</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7236499573269971</v>
+        <v>0.7257947261204506</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7720341341246953</v>
+        <v>0.7718265277423226</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8319528664148433</v>
+        <v>0.8303442001747534</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6646964083793298</v>
+        <v>0.6661837726107804</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7328131202227228</v>
+        <v>0.7309524802974793</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8432909596051431</v>
+        <v>0.8391822909152014</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8452142251269656</v>
+        <v>0.8464821819347821</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6566772078820838</v>
+        <v>0.6568363853986242</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7214257982010492</v>
+        <v>0.7226491433819732</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8023433428931644</v>
+        <v>0.8012412793885371</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.83254917099835</v>
+        <v>0.8318937318699551</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6527211235507244</v>
+        <v>0.6532163610335032</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.8478768768914284</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6531773864581415</v>
+        <v>0.6531773864581414</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7137582014626049</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6883563924830234</v>
+        <v>0.688443060098694</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.672309632892565</v>
+        <v>0.6731231967056954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8060737342628306</v>
+        <v>0.8050853468678122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6245911562373818</v>
+        <v>0.6235266547119697</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7075089307105324</v>
+        <v>0.7083042491732718</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7372628323337158</v>
+        <v>0.7368957849215302</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8362497679261964</v>
+        <v>0.8348504443008191</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6391457221643948</v>
+        <v>0.6380684252720714</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.701609028763891</v>
+        <v>0.7021312293361965</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7098663499642206</v>
+        <v>0.7106763472629843</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8246248718989744</v>
+        <v>0.8241038085445173</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6364295694983511</v>
+        <v>0.6368622459084096</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7199601744754434</v>
+        <v>0.720564399926435</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.704064408406783</v>
+        <v>0.7052084031844551</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.833496925025938</v>
+        <v>0.831693634732894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6606664978627604</v>
+        <v>0.6627552828603717</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.739090811669768</v>
+        <v>0.7372627195006702</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7666616446995475</v>
+        <v>0.7668678618433383</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8606141705675163</v>
+        <v>0.8598981195037871</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6694325958565666</v>
+        <v>0.6668319240651485</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7249838697388113</v>
+        <v>0.7254719673238966</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7334748714646159</v>
+        <v>0.7313434982175663</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8423180109910781</v>
+        <v>0.842430110436286</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6610489075515249</v>
+        <v>0.6599590698399581</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>508206</v>
+        <v>513243</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>421726</v>
+        <v>420199</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>512170</v>
+        <v>513665</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>376798</v>
+        <v>378126</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>509967</v>
+        <v>509303</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>474825</v>
+        <v>475812</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>549118</v>
+        <v>550490</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>425572</v>
+        <v>425949</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1033067</v>
+        <v>1033019</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>910018</v>
+        <v>910080</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1072176</v>
+        <v>1071566</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>817149</v>
+        <v>814423</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>554996</v>
+        <v>556238</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>472086</v>
+        <v>473811</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>556837</v>
+        <v>554564</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>434886</v>
+        <v>437920</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>552521</v>
+        <v>550483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>522940</v>
+        <v>523249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>583665</v>
+        <v>585777</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>470953</v>
+        <v>469242</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1095412</v>
+        <v>1099392</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>981712</v>
+        <v>981767</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1127425</v>
+        <v>1129520</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>890505</v>
+        <v>889744</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>641813</v>
+        <v>642647</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>662303</v>
+        <v>660999</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>801605</v>
+        <v>801798</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>644916</v>
+        <v>644637</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>689693</v>
+        <v>686645</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>735086</v>
+        <v>735377</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>871293</v>
+        <v>872036</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>696690</v>
+        <v>693995</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1350142</v>
+        <v>1347608</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1413402</v>
+        <v>1415776</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1686711</v>
+        <v>1687885</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1359462</v>
+        <v>1358573</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>702571</v>
+        <v>703720</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>721268</v>
+        <v>720350</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>854622</v>
+        <v>852978</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>716414</v>
+        <v>712098</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>742177</v>
+        <v>741469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>792701</v>
+        <v>792837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>916750</v>
+        <v>915273</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>754126</v>
+        <v>750792</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1428498</v>
+        <v>1427029</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1498845</v>
+        <v>1499095</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1754295</v>
+        <v>1754878</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1450059</v>
+        <v>1448129</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>411732</v>
+        <v>412578</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>464968</v>
+        <v>465900</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>625167</v>
+        <v>625047</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>501875</v>
+        <v>505065</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>437407</v>
+        <v>437567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>517403</v>
+        <v>514292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>643783</v>
+        <v>642538</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>500714</v>
+        <v>503108</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>867193</v>
+        <v>866416</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>997061</v>
+        <v>996052</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1279482</v>
+        <v>1279361</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1024499</v>
+        <v>1024885</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>462469</v>
+        <v>463323</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>519288</v>
+        <v>518580</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>664307</v>
+        <v>663564</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>564989</v>
+        <v>567338</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>489153</v>
+        <v>484816</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>569150</v>
+        <v>566839</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>683109</v>
+        <v>682601</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>553138</v>
+        <v>553291</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>937114</v>
+        <v>932907</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1073452</v>
+        <v>1073670</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1334390</v>
+        <v>1335880</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1104336</v>
+        <v>1106078</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>622964</v>
+        <v>629178</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>670010</v>
+        <v>669835</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>728626</v>
+        <v>727127</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>578583</v>
+        <v>585292</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>701341</v>
+        <v>703272</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>822058</v>
+        <v>820291</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>822570</v>
+        <v>823125</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>662434</v>
+        <v>661465</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1344973</v>
+        <v>1347463</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1505417</v>
+        <v>1507728</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1565329</v>
+        <v>1565086</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1256055</v>
+        <v>1262916</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>679500</v>
+        <v>681514</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>724674</v>
+        <v>724479</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>774070</v>
+        <v>772573</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>646032</v>
+        <v>647477</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>760390</v>
+        <v>758460</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>872750</v>
+        <v>868497</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>873646</v>
+        <v>874956</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>718679</v>
+        <v>718854</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1425986</v>
+        <v>1428404</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1583495</v>
+        <v>1581320</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1635179</v>
+        <v>1633892</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1348743</v>
+        <v>1349766</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2251253</v>
+        <v>2251537</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2276677</v>
+        <v>2279432</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2714850</v>
+        <v>2711521</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2173128</v>
+        <v>2169424</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2388600</v>
+        <v>2391285</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2597305</v>
+        <v>2596012</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2934203</v>
+        <v>2929293</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2340942</v>
+        <v>2336996</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4663278</v>
+        <v>4666749</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4904648</v>
+        <v>4910244</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5670744</v>
+        <v>5667161</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4545311</v>
+        <v>4548401</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2354612</v>
+        <v>2356589</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2384210</v>
+        <v>2388084</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2807211</v>
+        <v>2801138</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2298644</v>
+        <v>2305912</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2495223</v>
+        <v>2489051</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2700875</v>
+        <v>2701601</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3019692</v>
+        <v>3017180</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2451871</v>
+        <v>2442346</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4818640</v>
+        <v>4821884</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5067765</v>
+        <v>5053039</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5792415</v>
+        <v>5793186</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4721139</v>
+        <v>4713356</v>
       </c>
     </row>
     <row r="24">
